--- a/XlsxToLua/bin/Debug/TestExcel/TestMultinest.xlsx
+++ b/XlsxToLua/bin/Debug/TestExcel/TestMultinest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\表格导出工具 6.7\XlsxToLua\bin\Debug\TestExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\表格导出工具 7.0\XlsxToLua\bin\Debug\TestExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="169">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,10 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dict[6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>testTableString1</t>
   </si>
   <si>
@@ -194,75 +190,475 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testJson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attack":{"physical":140,"magic":0,"canCrit":true,"hitRate":0.9,"ult":[{"name":"CoupDeGrace","params":["sector",150,0,true],"cd":5}]},"defence":{"physical":40,"magic":0},"hp":150,"modelSize":[3.5,4,8],"petPhrase":"Death to all who oppose me!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10001,500;2,10002,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableString[k:#seq|v:#table(type=#1(int),id=#2(int),count=#3(int))]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testTableString2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testTableString3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testArray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array[dict[2]:2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array[int:2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array下的dict的多重嵌套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array中的dict下的dict中嵌套tableString1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array中的dict下的dict中嵌套tableString2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array中的dict下的dict中嵌套array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array中的dict下的dict中嵌套dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Tom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>childDict1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>childDict2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array下的dict中嵌套dict1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array下的dict中嵌套dict2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>childDict2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array下的dict中嵌套array1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array[int:3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>childArray1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>childArray2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array下的dict中嵌套array2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array[string:2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hello</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array下的array的多重嵌套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testArray1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testArray2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array[array[dict[2]:2]:2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>childArray1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>childArrayChildDict1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array[dict[2]:2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict[2]</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>childArrayChildDict2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array[int:2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array[string:2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>childArray2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array中的array下的dict中dict嵌套tableString1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array中的array下的dict中dict嵌套tableString2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array中的array下的dict中dict嵌套json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sorry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict[7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapString[content=string,position=(x=float,y=float),buttonName=string,isAutoHide=bool]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testMapString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>dict下的dict中嵌套json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testJson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"attack":{"physical":140,"magic":0,"canCrit":true,"hitRate":0.9,"ult":[{"name":"CoupDeGrace","params":["sector",150,0,true],"cd":5}]},"defence":{"physical":40,"magic":0},"hp":150,"modelSize":[3.5,4,8],"petPhrase":"Death to all who oppose me!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,10001,500;2,10002,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tableString[k:#seq|v:#table(type=#1(int),id=#2(int),count=#3(int))]</t>
+    <t>dict下的dict中嵌套mapString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position=(x=0.5,y=3),content="让我们继续冒险旅程吧"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buttonName="继续",isAutoHide=true</t>
+  </si>
+  <si>
+    <t>buttonName="继续",isAutoHide=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buttonName="继续",isAutoHide=false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buttonName="继续",isAutoHide=1</t>
+  </si>
+  <si>
+    <t>dict[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array中的dict下的dict中嵌套tableString3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array中的dict下的dict中嵌套mapString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buttonName="继续",isAutoHide=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -270,11 +666,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testTableString2</t>
+    <t>dict[4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array中的array下的dict中dict嵌套tableString3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array中的array下的dict中dict嵌套mapString</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -282,357 +682,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>testArray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array[dict[2]:2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array[int:2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array下的dict的多重嵌套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict[4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array中的dict下的dict中嵌套tableString1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array中的dict下的dict中嵌套tableString2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array中的dict下的dict中嵌套tableString3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>array中的dict下的dict中嵌套json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array中的dict下的dict中嵌套array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array中的dict下的dict中嵌套dict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>age</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Tom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>childDict1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>childDict2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array下的dict中嵌套dict1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array下的dict中嵌套dict2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>childDict2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array下的dict中嵌套array1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array[int:3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>childArray1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>childArray2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array下的dict中嵌套array2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array[string:2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hello</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array下的array的多重嵌套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testArray1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testArray2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array[array[dict[2]:2]:2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>childArray1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>childArrayChildDict1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array[dict[2]:2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict[2]</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>childArrayChildDict2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array[int:2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array[string:2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>childArray2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict[3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array中的array下的dict中dict嵌套tableString1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array中的array下的dict中dict嵌套tableString2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array中的array下的dict中dict嵌套tableString3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array中的array下的dict中dict嵌套json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sorry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -657,7 +707,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -760,6 +810,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -818,7 +874,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1030,6 +1086,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1410,7 +1478,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:BZ9"/>
+  <dimension ref="A1:CD9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -1437,48 +1505,52 @@
     <col min="26" max="26" width="31.125" style="22" customWidth="1"/>
     <col min="27" max="27" width="33.25" style="21" customWidth="1"/>
     <col min="28" max="28" width="42" style="20" customWidth="1"/>
-    <col min="29" max="31" width="9" style="54"/>
-    <col min="32" max="32" width="19.625" style="6" customWidth="1"/>
-    <col min="33" max="33" width="9" style="6"/>
-    <col min="34" max="34" width="14.5" style="50" customWidth="1"/>
-    <col min="35" max="35" width="39.625" style="20" customWidth="1"/>
-    <col min="36" max="36" width="31.125" style="22" customWidth="1"/>
-    <col min="37" max="37" width="33.25" style="21" customWidth="1"/>
-    <col min="38" max="38" width="33.25" style="48" customWidth="1"/>
-    <col min="39" max="40" width="7.625" style="48" customWidth="1"/>
-    <col min="41" max="41" width="15.75" style="50" customWidth="1"/>
-    <col min="42" max="42" width="42" style="20" customWidth="1"/>
-    <col min="43" max="43" width="32.5" style="9" customWidth="1"/>
-    <col min="44" max="45" width="9" style="9"/>
-    <col min="46" max="46" width="12.25" style="6" customWidth="1"/>
-    <col min="47" max="47" width="23.5" style="58" customWidth="1"/>
-    <col min="48" max="50" width="9" style="58"/>
-    <col min="51" max="51" width="17.375" style="21" customWidth="1"/>
-    <col min="52" max="53" width="9" style="21"/>
-    <col min="54" max="56" width="9" style="23"/>
-    <col min="57" max="57" width="26.875" style="6" customWidth="1"/>
-    <col min="58" max="58" width="18.125" style="70" customWidth="1"/>
-    <col min="59" max="59" width="21.5" style="66" customWidth="1"/>
-    <col min="60" max="60" width="9.5" style="66" customWidth="1"/>
-    <col min="61" max="61" width="9" style="66"/>
-    <col min="62" max="62" width="21.875" style="35" customWidth="1"/>
-    <col min="63" max="63" width="22" style="35" customWidth="1"/>
-    <col min="64" max="65" width="9" style="35"/>
-    <col min="66" max="66" width="17.125" style="35" customWidth="1"/>
+    <col min="29" max="29" width="42" style="62" customWidth="1"/>
+    <col min="30" max="32" width="9" style="54"/>
+    <col min="33" max="33" width="19.625" style="6" customWidth="1"/>
+    <col min="34" max="34" width="9" style="6"/>
+    <col min="35" max="35" width="14.5" style="50" customWidth="1"/>
+    <col min="36" max="36" width="39.625" style="20" customWidth="1"/>
+    <col min="37" max="37" width="31.125" style="22" customWidth="1"/>
+    <col min="38" max="38" width="33.25" style="21" customWidth="1"/>
+    <col min="39" max="39" width="33.25" style="62" customWidth="1"/>
+    <col min="40" max="40" width="33.25" style="48" customWidth="1"/>
+    <col min="41" max="42" width="7.625" style="48" customWidth="1"/>
+    <col min="43" max="43" width="15.75" style="50" customWidth="1"/>
+    <col min="44" max="44" width="42" style="20" customWidth="1"/>
+    <col min="45" max="45" width="42" style="35" customWidth="1"/>
+    <col min="46" max="46" width="32.5" style="9" customWidth="1"/>
+    <col min="47" max="48" width="9" style="9"/>
+    <col min="49" max="49" width="12.25" style="6" customWidth="1"/>
+    <col min="50" max="50" width="23.5" style="58" customWidth="1"/>
+    <col min="51" max="53" width="9" style="58"/>
+    <col min="54" max="54" width="17.375" style="21" customWidth="1"/>
+    <col min="55" max="56" width="9" style="21"/>
+    <col min="57" max="59" width="9" style="23"/>
+    <col min="60" max="60" width="26.875" style="6" customWidth="1"/>
+    <col min="61" max="61" width="18.125" style="70" customWidth="1"/>
+    <col min="62" max="62" width="21.5" style="66" customWidth="1"/>
+    <col min="63" max="63" width="9.5" style="66" customWidth="1"/>
+    <col min="64" max="64" width="9" style="66"/>
+    <col min="65" max="65" width="21.875" style="35" customWidth="1"/>
+    <col min="66" max="66" width="22" style="35" customWidth="1"/>
     <col min="67" max="68" width="9" style="35"/>
-    <col min="69" max="69" width="18.125" style="70" customWidth="1"/>
-    <col min="70" max="70" width="21.5" style="66" customWidth="1"/>
-    <col min="71" max="71" width="9" style="62"/>
-    <col min="72" max="72" width="39.625" style="62" customWidth="1"/>
-    <col min="73" max="73" width="31.125" style="62" customWidth="1"/>
-    <col min="74" max="74" width="33.25" style="62" customWidth="1"/>
-    <col min="75" max="75" width="42" style="35" customWidth="1"/>
-    <col min="76" max="76" width="21.5" style="3" customWidth="1"/>
-    <col min="77" max="78" width="9" style="3"/>
-    <col min="79" max="16384" width="9" style="23"/>
+    <col min="69" max="69" width="17.125" style="35" customWidth="1"/>
+    <col min="70" max="71" width="9" style="35"/>
+    <col min="72" max="72" width="18.125" style="70" customWidth="1"/>
+    <col min="73" max="73" width="21.5" style="66" customWidth="1"/>
+    <col min="74" max="74" width="9" style="62"/>
+    <col min="75" max="75" width="39.625" style="62" customWidth="1"/>
+    <col min="76" max="76" width="31.125" style="62" customWidth="1"/>
+    <col min="77" max="77" width="33.25" style="62" customWidth="1"/>
+    <col min="78" max="78" width="33.25" style="74" customWidth="1"/>
+    <col min="79" max="79" width="42" style="35" customWidth="1"/>
+    <col min="80" max="80" width="21.5" style="3" customWidth="1"/>
+    <col min="81" max="82" width="9" style="3"/>
+    <col min="83" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:82" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1538,128 +1610,140 @@
         <v>38</v>
       </c>
       <c r="Y1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="AA1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AA1" s="18" t="s">
-        <v>43</v>
-      </c>
       <c r="AB1" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC1" s="51"/>
+        <v>152</v>
+      </c>
+      <c r="AC1" s="59" t="s">
+        <v>153</v>
+      </c>
       <c r="AD1" s="51"/>
       <c r="AE1" s="51"/>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI1" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ1" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK1" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="AG1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH1" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI1" s="17" t="s">
+      <c r="AL1" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM1" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN1" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="AJ1" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK1" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL1" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="16" t="s">
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR1" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS1" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU1" s="7"/>
+      <c r="AV1" s="7"/>
+      <c r="AW1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX1" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="AP1" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ1" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="7"/>
-      <c r="AT1" s="4" t="s">
+      <c r="AY1" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ1" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="AU1" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV1" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="AW1" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="AX1" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="AY1" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="AZ1" s="18"/>
-      <c r="BA1" s="18"/>
-      <c r="BE1" s="4" t="s">
+      <c r="BA1" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="BB1" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC1" s="18"/>
+      <c r="BD1" s="18"/>
+      <c r="BH1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BI1" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="BJ1" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="BF1" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG1" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH1" s="63"/>
-      <c r="BI1" s="63"/>
-      <c r="BJ1" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="BK1" s="32"/>
-      <c r="BL1" s="32" t="s">
-        <v>132</v>
-      </c>
+      <c r="BK1" s="63"/>
+      <c r="BL1" s="63"/>
       <c r="BM1" s="32" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="BN1" s="32"/>
       <c r="BO1" s="32" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="BP1" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="BQ1" s="32"/>
+      <c r="BR1" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="BS1" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT1" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="BU1" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="BV1" s="59"/>
+      <c r="BW1" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="BQ1" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="BR1" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS1" s="59"/>
-      <c r="BT1" s="59" t="s">
-        <v>139</v>
-      </c>
-      <c r="BU1" s="59" t="s">
-        <v>140</v>
-      </c>
-      <c r="BV1" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="BW1" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="BY1" s="1"/>
-      <c r="BZ1" s="1"/>
+      <c r="BX1" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="BY1" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="BZ1" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA1" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="CC1" s="1"/>
+      <c r="CD1" s="1"/>
     </row>
-    <row r="2" spans="1:78" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:82" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1713,121 +1797,133 @@
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
       <c r="Y2" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z2" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AA2" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AB2" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC2" s="51"/>
+        <v>44</v>
+      </c>
+      <c r="AC2" s="59" t="s">
+        <v>151</v>
+      </c>
       <c r="AD2" s="51"/>
       <c r="AE2" s="51"/>
-      <c r="AF2" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="16" t="s">
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ2" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK2" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL2" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM2" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN2" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO2" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP2" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ2" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="AI2" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ2" s="19" t="s">
+      <c r="AR2" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS2" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AK2" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL2" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM2" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN2" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO2" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP2" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR2" s="7"/>
-      <c r="AS2" s="7"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="AV2" s="55"/>
-      <c r="AW2" s="55"/>
-      <c r="AX2" s="55"/>
-      <c r="AY2" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="AZ2" s="18"/>
-      <c r="BA2" s="18"/>
-      <c r="BE2" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="BF2" s="67"/>
-      <c r="BG2" s="63"/>
-      <c r="BH2" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="BI2" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="BJ2" s="32"/>
-      <c r="BK2" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="BL2" s="32"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY2" s="55"/>
+      <c r="AZ2" s="55"/>
+      <c r="BA2" s="55"/>
+      <c r="BB2" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC2" s="18"/>
+      <c r="BD2" s="18"/>
+      <c r="BH2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BI2" s="67"/>
+      <c r="BJ2" s="63"/>
+      <c r="BK2" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL2" s="63" t="s">
+        <v>121</v>
+      </c>
       <c r="BM2" s="32"/>
       <c r="BN2" s="32" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="BO2" s="32"/>
       <c r="BP2" s="32"/>
-      <c r="BQ2" s="67"/>
-      <c r="BR2" s="63"/>
-      <c r="BS2" s="59" t="s">
+      <c r="BQ2" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="BR2" s="32"/>
+      <c r="BS2" s="32"/>
+      <c r="BT2" s="67"/>
+      <c r="BU2" s="63"/>
+      <c r="BV2" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="BW2" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="BX2" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="BY2" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="BZ2" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="CA2" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="CB2" s="1"/>
+      <c r="CC2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CD2" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BT2" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="BU2" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="BV2" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="BW2" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="BX2" s="1"/>
-      <c r="BY2" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="BZ2" s="1" t="s">
-        <v>144</v>
-      </c>
     </row>
-    <row r="3" spans="1:78" s="16" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:82" s="16" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>9</v>
@@ -1872,7 +1968,7 @@
         <v>13</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="R3" s="10" t="s">
         <v>7</v>
@@ -1902,148 +1998,160 @@
         <v>4</v>
       </c>
       <c r="AA3" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB3" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC3" s="51"/>
+        <v>43</v>
+      </c>
+      <c r="AC3" s="59" t="s">
+        <v>150</v>
+      </c>
       <c r="AD3" s="51"/>
       <c r="AE3" s="51"/>
-      <c r="AF3" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="AF3" s="51"/>
       <c r="AG3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI3" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL3" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM3" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN3" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO3" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP3" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ3" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AR3" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS3" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX3" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="AH3" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI3" s="17" t="s">
+      <c r="AY3" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ3" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA3" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB3" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="BH3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BI3" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ3" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="BK3" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL3" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="BM3" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="BN3" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="BO3" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="BP3" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="BQ3" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="BR3" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS3" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="BT3" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU3" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV3" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="BW3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="AJ3" s="19" t="s">
+      <c r="BX3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AK3" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL3" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM3" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN3" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO3" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP3" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT3" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AU3" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="AV3" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="AW3" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="AX3" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="AY3" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="AZ3" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="BA3" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="BE3" s="4" t="s">
+      <c r="BY3" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="BZ3" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="CA3" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CC3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="BF3" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="BG3" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="BH3" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="BI3" s="63" t="s">
-        <v>128</v>
-      </c>
-      <c r="BJ3" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="BK3" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="BL3" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="BM3" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="BN3" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="BO3" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="BP3" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="BQ3" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="BR3" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="BS3" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="BT3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="BU3" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="BV3" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="BW3" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="BX3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BY3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BZ3" s="1" t="s">
-        <v>124</v>
+      <c r="CD3" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:78" s="28" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:82" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="5"/>
       <c r="C4" s="33"/>
@@ -2072,53 +2180,57 @@
       <c r="Z4" s="31"/>
       <c r="AA4" s="30"/>
       <c r="AB4" s="29"/>
-      <c r="AC4" s="52"/>
+      <c r="AC4" s="60"/>
       <c r="AD4" s="52"/>
       <c r="AE4" s="52"/>
-      <c r="AF4" s="5"/>
+      <c r="AF4" s="52"/>
       <c r="AG4" s="5"/>
-      <c r="AI4" s="29"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="46"/>
+      <c r="AH4" s="5"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="30"/>
+      <c r="AM4" s="60"/>
       <c r="AN4" s="46"/>
-      <c r="AP4" s="29"/>
-      <c r="AQ4" s="8"/>
-      <c r="AR4" s="8"/>
-      <c r="AS4" s="8"/>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="56"/>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
+      <c r="AO4" s="46"/>
+      <c r="AP4" s="46"/>
+      <c r="AR4" s="29"/>
+      <c r="AS4" s="33"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="5"/>
       <c r="AX4" s="56"/>
-      <c r="AY4" s="30"/>
-      <c r="AZ4" s="30"/>
-      <c r="BA4" s="30"/>
-      <c r="BE4" s="5"/>
-      <c r="BF4" s="68"/>
-      <c r="BG4" s="64"/>
-      <c r="BH4" s="64"/>
-      <c r="BI4" s="64"/>
-      <c r="BJ4" s="33"/>
-      <c r="BK4" s="33"/>
-      <c r="BL4" s="33"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="30"/>
+      <c r="BC4" s="30"/>
+      <c r="BD4" s="30"/>
+      <c r="BH4" s="5"/>
+      <c r="BI4" s="68"/>
+      <c r="BJ4" s="64"/>
+      <c r="BK4" s="64"/>
+      <c r="BL4" s="64"/>
       <c r="BM4" s="33"/>
       <c r="BN4" s="33"/>
       <c r="BO4" s="33"/>
       <c r="BP4" s="33"/>
-      <c r="BQ4" s="68"/>
-      <c r="BR4" s="64"/>
-      <c r="BS4" s="60"/>
-      <c r="BT4" s="60"/>
-      <c r="BU4" s="60"/>
+      <c r="BQ4" s="33"/>
+      <c r="BR4" s="33"/>
+      <c r="BS4" s="33"/>
+      <c r="BT4" s="68"/>
+      <c r="BU4" s="64"/>
       <c r="BV4" s="60"/>
-      <c r="BW4" s="33"/>
-      <c r="BX4" s="2"/>
-      <c r="BY4" s="2"/>
-      <c r="BZ4" s="2"/>
+      <c r="BW4" s="60"/>
+      <c r="BX4" s="60"/>
+      <c r="BY4" s="60"/>
+      <c r="BZ4" s="72"/>
+      <c r="CA4" s="33"/>
+      <c r="CB4" s="2"/>
+      <c r="CC4" s="2"/>
+      <c r="CD4" s="2"/>
     </row>
-    <row r="5" spans="1:78" s="28" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:82" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="5"/>
       <c r="C5" s="33"/>
@@ -2147,58 +2259,62 @@
       <c r="Z5" s="31"/>
       <c r="AA5" s="30"/>
       <c r="AB5" s="29"/>
-      <c r="AC5" s="52"/>
+      <c r="AC5" s="60"/>
       <c r="AD5" s="52"/>
       <c r="AE5" s="52"/>
-      <c r="AF5" s="5"/>
+      <c r="AF5" s="52"/>
       <c r="AG5" s="5"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="30"/>
-      <c r="AL5" s="46"/>
-      <c r="AM5" s="46"/>
+      <c r="AH5" s="5"/>
+      <c r="AJ5" s="29"/>
+      <c r="AK5" s="31"/>
+      <c r="AL5" s="30"/>
+      <c r="AM5" s="60"/>
       <c r="AN5" s="46"/>
-      <c r="AP5" s="29"/>
-      <c r="AQ5" s="8"/>
-      <c r="AR5" s="8"/>
-      <c r="AS5" s="8"/>
-      <c r="AT5" s="5"/>
-      <c r="AU5" s="56"/>
-      <c r="AV5" s="56"/>
-      <c r="AW5" s="56"/>
+      <c r="AO5" s="46"/>
+      <c r="AP5" s="46"/>
+      <c r="AR5" s="29"/>
+      <c r="AS5" s="33"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="5"/>
       <c r="AX5" s="56"/>
-      <c r="AY5" s="30"/>
-      <c r="AZ5" s="30"/>
-      <c r="BA5" s="30"/>
-      <c r="BE5" s="5"/>
-      <c r="BF5" s="68"/>
-      <c r="BG5" s="64"/>
-      <c r="BH5" s="64"/>
-      <c r="BI5" s="64"/>
-      <c r="BJ5" s="33"/>
-      <c r="BK5" s="33"/>
-      <c r="BL5" s="33"/>
+      <c r="AY5" s="56"/>
+      <c r="AZ5" s="56"/>
+      <c r="BA5" s="56"/>
+      <c r="BB5" s="30"/>
+      <c r="BC5" s="30"/>
+      <c r="BD5" s="30"/>
+      <c r="BH5" s="5"/>
+      <c r="BI5" s="68"/>
+      <c r="BJ5" s="64"/>
+      <c r="BK5" s="64"/>
+      <c r="BL5" s="64"/>
       <c r="BM5" s="33"/>
       <c r="BN5" s="33"/>
       <c r="BO5" s="33"/>
       <c r="BP5" s="33"/>
-      <c r="BQ5" s="68"/>
-      <c r="BR5" s="64"/>
-      <c r="BS5" s="60"/>
-      <c r="BT5" s="60"/>
-      <c r="BU5" s="60"/>
+      <c r="BQ5" s="33"/>
+      <c r="BR5" s="33"/>
+      <c r="BS5" s="33"/>
+      <c r="BT5" s="68"/>
+      <c r="BU5" s="64"/>
       <c r="BV5" s="60"/>
-      <c r="BW5" s="33"/>
-      <c r="BX5" s="2"/>
-      <c r="BY5" s="2"/>
-      <c r="BZ5" s="2"/>
+      <c r="BW5" s="60"/>
+      <c r="BX5" s="60"/>
+      <c r="BY5" s="60"/>
+      <c r="BZ5" s="72"/>
+      <c r="CA5" s="33"/>
+      <c r="CB5" s="2"/>
+      <c r="CC5" s="2"/>
+      <c r="CD5" s="2"/>
     </row>
-    <row r="6" spans="1:78" s="27" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:82" s="27" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="41" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
@@ -2210,43 +2326,43 @@
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J6" s="38"/>
       <c r="K6" s="38"/>
       <c r="L6" s="38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M6" s="38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N6" s="38"/>
       <c r="O6" s="38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P6" s="38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q6" s="43"/>
       <c r="R6" s="44"/>
       <c r="S6" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="T6" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="U6" s="44" t="s">
         <v>55</v>
-      </c>
-      <c r="T6" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="U6" s="44" t="s">
-        <v>57</v>
       </c>
       <c r="V6" s="40"/>
       <c r="W6" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X6" s="40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y6" s="24" t="s">
         <v>3</v>
@@ -2255,120 +2371,132 @@
         <v>3</v>
       </c>
       <c r="AA6" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AB6" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC6" s="53"/>
+        <v>45</v>
+      </c>
+      <c r="AC6" s="61" t="s">
+        <v>156</v>
+      </c>
       <c r="AD6" s="53"/>
       <c r="AE6" s="53"/>
-      <c r="AF6" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG6" s="42"/>
-      <c r="AH6" s="49"/>
-      <c r="AI6" s="24" t="s">
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH6" s="42"/>
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AJ6" s="26" t="s">
+      <c r="AK6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AK6" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN6" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO6" s="49"/>
-      <c r="AP6" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ6" s="40"/>
-      <c r="AR6" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS6" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="AT6" s="42"/>
-      <c r="AU6" s="57"/>
-      <c r="AV6" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="AW6" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="AX6" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY6" s="25"/>
-      <c r="AZ6" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="BA6" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="BE6" s="42" t="s">
+      <c r="AL6" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM6" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN6" s="47"/>
+      <c r="AO6" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP6" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ6" s="49"/>
+      <c r="AR6" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS6" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="BF6" s="69"/>
-      <c r="BG6" s="65"/>
-      <c r="BH6" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="BI6" s="65" t="s">
-        <v>146</v>
-      </c>
-      <c r="BJ6" s="34"/>
-      <c r="BK6" s="34"/>
-      <c r="BL6" s="34" t="s">
+      <c r="AT6" s="40"/>
+      <c r="AU6" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV6" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW6" s="42"/>
+      <c r="AX6" s="57"/>
+      <c r="AY6" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ6" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="BA6" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB6" s="25"/>
+      <c r="BC6" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD6" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="BH6" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="BM6" s="34" t="s">
-        <v>150</v>
-      </c>
+      <c r="BI6" s="69"/>
+      <c r="BJ6" s="65"/>
+      <c r="BK6" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL6" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="BM6" s="34"/>
       <c r="BN6" s="34"/>
       <c r="BO6" s="34" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="BP6" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="BQ6" s="69"/>
-      <c r="BR6" s="65"/>
-      <c r="BS6" s="61"/>
-      <c r="BT6" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="BQ6" s="34"/>
+      <c r="BR6" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="BS6" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="BT6" s="69"/>
+      <c r="BU6" s="65"/>
+      <c r="BV6" s="61"/>
+      <c r="BW6" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="BU6" s="61" t="s">
+      <c r="BX6" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="BV6" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="BW6" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="BX6" s="41"/>
-      <c r="BY6" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="BZ6" s="41" t="s">
-        <v>154</v>
+      <c r="BY6" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="BZ6" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="CA6" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="CB6" s="41"/>
+      <c r="CC6" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="CD6" s="41" t="s">
+        <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:78" s="27" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:82" s="27" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A7" s="41" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34" t="s">
@@ -2379,47 +2507,47 @@
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J7" s="38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K7" s="38"/>
       <c r="L7" s="38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M7" s="38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N7" s="38"/>
       <c r="O7" s="38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P7" s="38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q7" s="43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R7" s="44"/>
       <c r="S7" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="T7" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="U7" s="44" t="s">
         <v>55</v>
-      </c>
-      <c r="T7" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="U7" s="44" t="s">
-        <v>57</v>
       </c>
       <c r="V7" s="40"/>
       <c r="W7" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X7" s="40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y7" s="24" t="s">
         <v>3</v>
@@ -2428,118 +2556,130 @@
         <v>3</v>
       </c>
       <c r="AA7" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AB7" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC7" s="53"/>
+        <v>45</v>
+      </c>
+      <c r="AC7" s="61" t="s">
+        <v>157</v>
+      </c>
       <c r="AD7" s="53"/>
       <c r="AE7" s="53"/>
-      <c r="AF7" s="42"/>
-      <c r="AG7" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH7" s="49"/>
-      <c r="AI7" s="24" t="s">
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="42"/>
+      <c r="AH7" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AJ7" s="26" t="s">
+      <c r="AK7" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AK7" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL7" s="47"/>
-      <c r="AM7" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN7" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO7" s="49"/>
-      <c r="AP7" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ7" s="40"/>
-      <c r="AR7" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS7" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="AT7" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="AU7" s="57"/>
-      <c r="AV7" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="AW7" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="AX7" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY7" s="25"/>
-      <c r="AZ7" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="BA7" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="BE7" s="42"/>
-      <c r="BF7" s="69" t="s">
-        <v>155</v>
-      </c>
-      <c r="BG7" s="65"/>
-      <c r="BH7" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="BI7" s="65" t="s">
-        <v>146</v>
-      </c>
-      <c r="BJ7" s="34"/>
-      <c r="BK7" s="34"/>
-      <c r="BL7" s="34" t="s">
+      <c r="AL7" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM7" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN7" s="47"/>
+      <c r="AO7" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP7" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ7" s="49"/>
+      <c r="AR7" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS7" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT7" s="40"/>
+      <c r="AU7" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV7" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW7" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX7" s="57"/>
+      <c r="AY7" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ7" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="BA7" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB7" s="25"/>
+      <c r="BC7" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD7" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="BH7" s="42"/>
+      <c r="BI7" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="BM7" s="34" t="s">
-        <v>150</v>
-      </c>
+      <c r="BJ7" s="65"/>
+      <c r="BK7" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL7" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="BM7" s="34"/>
       <c r="BN7" s="34"/>
       <c r="BO7" s="34" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="BP7" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="BQ7" s="69" t="s">
-        <v>155</v>
-      </c>
-      <c r="BR7" s="65"/>
-      <c r="BS7" s="61"/>
-      <c r="BT7" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="BQ7" s="34"/>
+      <c r="BR7" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="BS7" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="BT7" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="BU7" s="65"/>
+      <c r="BV7" s="61"/>
+      <c r="BW7" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="BU7" s="61" t="s">
+      <c r="BX7" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="BV7" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="BW7" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="BX7" s="41"/>
-      <c r="BY7" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="BZ7" s="41" t="s">
-        <v>154</v>
+      <c r="BY7" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="BZ7" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="CA7" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="CB7" s="41"/>
+      <c r="CC7" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="CD7" s="41" t="s">
+        <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:78" s="27" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:82" s="27" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A8" s="41" t="s">
         <v>17</v>
       </c>
@@ -2553,164 +2693,176 @@
         <v>38</v>
       </c>
       <c r="G8" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="34" t="s">
         <v>48</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>50</v>
       </c>
       <c r="J8" s="38"/>
       <c r="K8" s="38"/>
       <c r="L8" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="38" t="s">
+      <c r="P8" s="38" t="s">
         <v>52</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="O8" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" s="38" t="s">
-        <v>54</v>
       </c>
       <c r="Q8" s="43"/>
       <c r="R8" s="44"/>
       <c r="S8" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="T8" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="U8" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="T8" s="44" t="s">
+      <c r="V8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="W8" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="U8" s="44" t="s">
+      <c r="X8" s="40" t="s">
         <v>57</v>
-      </c>
-      <c r="V8" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="W8" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="X8" s="40" t="s">
-        <v>59</v>
       </c>
       <c r="Y8" s="24"/>
       <c r="Z8" s="26"/>
       <c r="AA8" s="25"/>
       <c r="AB8" s="24"/>
-      <c r="AC8" s="53"/>
+      <c r="AC8" s="61" t="s">
+        <v>158</v>
+      </c>
       <c r="AD8" s="53"/>
       <c r="AE8" s="53"/>
-      <c r="AF8" s="42"/>
+      <c r="AF8" s="53"/>
       <c r="AG8" s="42"/>
-      <c r="AH8" s="49"/>
-      <c r="AI8" s="24" t="s">
+      <c r="AH8" s="42"/>
+      <c r="AI8" s="49"/>
+      <c r="AJ8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AJ8" s="26" t="s">
+      <c r="AK8" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AK8" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL8" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="AM8" s="47" t="s">
-        <v>85</v>
+      <c r="AL8" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM8" s="61" t="s">
+        <v>157</v>
       </c>
       <c r="AN8" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO8" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP8" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ8" s="40"/>
-      <c r="AR8" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS8" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="AT8" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="AU8" s="57"/>
-      <c r="AV8" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="AW8" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="AX8" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY8" s="25"/>
-      <c r="AZ8" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="BA8" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="BE8" s="42"/>
-      <c r="BF8" s="69"/>
-      <c r="BG8" s="65"/>
-      <c r="BH8" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="BI8" s="65" t="s">
-        <v>146</v>
-      </c>
-      <c r="BJ8" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="BK8" s="34"/>
-      <c r="BL8" s="34" t="s">
-        <v>147</v>
+        <v>110</v>
+      </c>
+      <c r="AO8" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP8" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ8" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR8" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS8" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT8" s="40"/>
+      <c r="AU8" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV8" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW8" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX8" s="57"/>
+      <c r="AY8" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ8" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA8" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB8" s="25"/>
+      <c r="BC8" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD8" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="BH8" s="42"/>
+      <c r="BI8" s="69"/>
+      <c r="BJ8" s="65"/>
+      <c r="BK8" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL8" s="65" t="s">
+        <v>139</v>
       </c>
       <c r="BM8" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BN8" s="34"/>
       <c r="BO8" s="34" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="BP8" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="BQ8" s="69" t="s">
-        <v>155</v>
-      </c>
-      <c r="BR8" s="65"/>
-      <c r="BS8" s="61"/>
-      <c r="BT8" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="BQ8" s="34"/>
+      <c r="BR8" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="BS8" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="BT8" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="BU8" s="65"/>
+      <c r="BV8" s="61"/>
+      <c r="BW8" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="BU8" s="61" t="s">
+      <c r="BX8" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="BV8" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="BW8" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="BX8" s="41"/>
-      <c r="BY8" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="BZ8" s="41" t="s">
-        <v>154</v>
+      <c r="BY8" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="BZ8" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="CA8" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="CB8" s="41"/>
+      <c r="CC8" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="CD8" s="41" t="s">
+        <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:78" s="27" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:82" s="27" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A9" s="41" t="s">
         <v>18</v>
       </c>
@@ -2725,43 +2877,43 @@
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J9" s="38"/>
       <c r="K9" s="38"/>
       <c r="L9" s="38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M9" s="38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N9" s="38"/>
       <c r="O9" s="38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P9" s="38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="43"/>
       <c r="R9" s="44"/>
       <c r="S9" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="T9" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="U9" s="44" t="s">
         <v>55</v>
-      </c>
-      <c r="T9" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="U9" s="44" t="s">
-        <v>57</v>
       </c>
       <c r="V9" s="40"/>
       <c r="W9" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X9" s="40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y9" s="24" t="s">
         <v>3</v>
@@ -2770,109 +2922,121 @@
         <v>3</v>
       </c>
       <c r="AA9" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AB9" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC9" s="53"/>
+        <v>45</v>
+      </c>
+      <c r="AC9" s="61" t="s">
+        <v>154</v>
+      </c>
       <c r="AD9" s="53"/>
       <c r="AE9" s="53"/>
-      <c r="AF9" s="42"/>
+      <c r="AF9" s="53"/>
       <c r="AG9" s="42"/>
-      <c r="AH9" s="49"/>
-      <c r="AI9" s="24" t="s">
+      <c r="AH9" s="42"/>
+      <c r="AI9" s="49"/>
+      <c r="AJ9" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AJ9" s="26" t="s">
+      <c r="AK9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AK9" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL9" s="47"/>
-      <c r="AM9" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN9" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO9" s="49"/>
-      <c r="AP9" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ9" s="40"/>
-      <c r="AR9" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS9" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="AT9" s="42"/>
-      <c r="AU9" s="57"/>
-      <c r="AV9" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="AW9" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="AX9" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY9" s="25"/>
-      <c r="AZ9" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="BA9" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="BE9" s="42"/>
-      <c r="BF9" s="69"/>
-      <c r="BG9" s="65"/>
-      <c r="BH9" s="65" t="s">
+      <c r="AL9" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM9" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN9" s="47"/>
+      <c r="AO9" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP9" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ9" s="49"/>
+      <c r="AR9" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS9" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT9" s="40"/>
+      <c r="AU9" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV9" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW9" s="42"/>
+      <c r="AX9" s="57"/>
+      <c r="AY9" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ9" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA9" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB9" s="25"/>
+      <c r="BC9" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD9" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="BH9" s="42"/>
+      <c r="BI9" s="69"/>
+      <c r="BJ9" s="65"/>
+      <c r="BK9" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL9" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="BM9" s="34"/>
+      <c r="BN9" s="34"/>
+      <c r="BO9" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="BP9" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="BQ9" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="BR9" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="BI9" s="65" t="s">
+      <c r="BS9" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="BT9" s="69"/>
+      <c r="BU9" s="65"/>
+      <c r="BV9" s="61"/>
+      <c r="BW9" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX9" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY9" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="BZ9" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="CA9" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="CB9" s="41"/>
+      <c r="CC9" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="BJ9" s="34"/>
-      <c r="BK9" s="34"/>
-      <c r="BL9" s="34" t="s">
+      <c r="CD9" s="41" t="s">
         <v>147</v>
-      </c>
-      <c r="BM9" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="BN9" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="BO9" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="BP9" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="BQ9" s="69"/>
-      <c r="BR9" s="65"/>
-      <c r="BS9" s="61"/>
-      <c r="BT9" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="BU9" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="BV9" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="BW9" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="BX9" s="41"/>
-      <c r="BY9" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="BZ9" s="41" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
